--- a/medicine/Mort/Tsuki_no_wa_no_misasagi/Tsuki_no_wa_no_misasagi.xlsx
+++ b/medicine/Mort/Tsuki_no_wa_no_misasagi/Tsuki_no_wa_no_misasagi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tsuki no wa no misasagi (月輪陵) est le nom d'un mausolée situé dans l'arrondissement de Higashiyama-ku à Kyoto, utilisé par des générations successives de la Maison impériale du Japon[1].
-Les tombes elles-mêmes se trouvent au Sennyū-ji, temple bouddhiste héréditaire ou bodaiji de la famille impériale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tsuki no wa no misasagi (月輪陵) est le nom d'un mausolée situé dans l'arrondissement de Higashiyama-ku à Kyoto, utilisé par des générations successives de la Maison impériale du Japon.
+Les tombes elles-mêmes se trouvent au Sennyū-ji, temple bouddhiste héréditaire ou bodaiji de la famille impériale.
 </t>
         </is>
       </c>
@@ -514,27 +526,66 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Époque de Kamakura
-86 Empereur Go-Horikawa[3].
-87 Empereur Shijō[3].
-Époque d'Edo
-L'Agence impériale maintient Tsuki no wa no misasagi comme le lieu de consécration et de vénération de plusieurs empereurs de l'époque d'Edo.
-108 Empereur Go-Mizunoo[4].
-109 Empereur Meishō[4].
-110 Empereur Go-Kōmyō[4].
-111 Empereur Go-Sai[4].
-112 Empereur Reigen[4].
-113 Empereur Higashiyama[4].
-114 Empereur Nakamikado[4].
-115 Empereur Sakuramachi[4].
-116 Empereur Momozono[4].
-117 Empereur Go-Sakuramachi[4].
-118 Empereur Go-Momozono[4].
-C'est par ailleurs le misasagi officiel du prince Masahito, au nom posthume de Yōkwōin daijō-tennō, fils ainé de l'empereur Ōgimachi et père de l'empereur Go-Yōzei[5].  
-Deux autres empereurs de l'époque d'Edo sont également consacrés à Nochi no Tsukinowa no misasagi (後月輪陵?) et le dernier empereur de l' d'Edo est consacré à Nochi no Tsukinowa no Higashiyama no misasagi (後月輪東山陵?)[4] en forme de kofun. Ce complexe funéraire impérial sert aussi de dernier lieu de repos à deux impératrices douairières.
-119 Empereur Kōkaku[4] et impératrice Yoshikō[6].
-120 Empereur Ninkō[4].
-121 Empereur Komei[4] et impératrice Eishō[7].</t>
+          <t>Époque de Kamakura</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>86 Empereur Go-Horikawa.
+87 Empereur Shijō.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tsuki_no_wa_no_misasagi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tsuki_no_wa_no_misasagi</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Époque d'Edo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'Agence impériale maintient Tsuki no wa no misasagi comme le lieu de consécration et de vénération de plusieurs empereurs de l'époque d'Edo.
+108 Empereur Go-Mizunoo.
+109 Empereur Meishō.
+110 Empereur Go-Kōmyō.
+111 Empereur Go-Sai.
+112 Empereur Reigen.
+113 Empereur Higashiyama.
+114 Empereur Nakamikado.
+115 Empereur Sakuramachi.
+116 Empereur Momozono.
+117 Empereur Go-Sakuramachi.
+118 Empereur Go-Momozono.
+C'est par ailleurs le misasagi officiel du prince Masahito, au nom posthume de Yōkwōin daijō-tennō, fils ainé de l'empereur Ōgimachi et père de l'empereur Go-Yōzei.  
+Deux autres empereurs de l'époque d'Edo sont également consacrés à Nochi no Tsukinowa no misasagi (後月輪陵?) et le dernier empereur de l' d'Edo est consacré à Nochi no Tsukinowa no Higashiyama no misasagi (後月輪東山陵?) en forme de kofun. Ce complexe funéraire impérial sert aussi de dernier lieu de repos à deux impératrices douairières.
+119 Empereur Kōkaku et impératrice Yoshikō.
+120 Empereur Ninkō.
+121 Empereur Komei et impératrice Eishō.</t>
         </is>
       </c>
     </row>
